--- a/planilha/novembro-2/Escala ASO1 - Jose Cândido - 1° Turno - Novembro.xlsx
+++ b/planilha/novembro-2/Escala ASO1 - Jose Cândido - 1° Turno - Novembro.xlsx
@@ -85,10 +85,10 @@
     <t>6</t>
   </si>
   <si>
-    <t>Mayara Maia</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Helena Brito</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Poliana Ferreira</t>
@@ -103,10 +103,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>Victor Santos</t>
-  </si>
-  <si>
-    <t>31/10/19</t>
+    <t>Larissa Elias</t>
+  </si>
+  <si>
+    <t>01/11/19</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>19</v>
@@ -843,10 +843,10 @@
         <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>7</v>
@@ -855,16 +855,16 @@
         <v>19</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>19</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>13</v>
@@ -906,10 +906,10 @@
         <v>19</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>8</v>
@@ -993,13 +993,13 @@
         <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>19</v>
@@ -1008,13 +1008,13 @@
         <v>8</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>19</v>
@@ -1038,13 +1038,13 @@
         <v>19</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>19</v>
@@ -1056,19 +1056,19 @@
         <v>19</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AM5">
         <f>COUNTIF(B5:AG5; "B1")</f>
@@ -1127,38 +1127,38 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>19</v>
@@ -1166,62 +1166,62 @@
       <c r="R6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>8</v>
+      <c r="S6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>7</v>
+      <c r="V6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>13</v>
+      <c r="AC6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AM6">
         <f>COUNTIF(B6:AG6; "B1")</f>
@@ -1289,13 +1289,13 @@
         <v>19</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M7" s="5" t="s"/>
       <c r="N7" s="4" t="s">
@@ -1305,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="5" t="s"/>
       <c r="R7" s="5" t="s"/>
@@ -1330,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="5" t="s"/>
       <c r="AC7" s="5" t="s"/>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH7" s="5" t="s"/>
       <c r="AI7" s="4" t="s">
@@ -1354,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AM7">
         <f>COUNTIF(B7:AG7; "B1")</f>
@@ -1419,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3" t="s"/>
       <c r="M8" s="4" t="s">
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P8" s="3" t="s"/>
       <c r="Q8" s="3" t="s"/>
@@ -1468,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG8" s="3" t="s"/>
       <c r="AH8" s="4" t="s">
@@ -1484,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AK8" s="3" t="s"/>
       <c r="AM8">
@@ -1533,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -1541,48 +1541,48 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s"/>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="5" t="s"/>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="5" t="s"/>
       <c r="K9" s="5" t="s"/>
-      <c r="L9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>19</v>
+      <c r="L9" s="5" t="s"/>
+      <c r="M9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="5" t="s"/>
-      <c r="P9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="5" t="s"/>
       <c r="Q9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="5" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="U9" s="5" t="s"/>
-      <c r="V9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>19</v>
+      <c r="V9" s="5" t="s"/>
+      <c r="W9" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="X9" s="4" t="s">
         <v>19</v>
@@ -1590,32 +1590,32 @@
       <c r="Y9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="5" t="s"/>
-      <c r="AA9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="5" t="s"/>
       <c r="AB9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD9" s="5" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AE9" s="5" t="s"/>
       <c r="AF9" s="5" t="s"/>
-      <c r="AG9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>19</v>
+      <c r="AG9" s="5" t="s"/>
+      <c r="AH9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AJ9" s="5" t="s"/>
-      <c r="AK9" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" s="5" t="s"/>
       <c r="AM9">
         <f>COUNTIF(B9:AG9; "B1")</f>
         <v/>
